--- a/Parameters/CCosts.xlsx
+++ b/Parameters/CCosts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839BB32-C28D-4D91-95DB-0AE734A66F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2E8A8-520F-467C-B30E-B0E3163916F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{4A012349-D07A-4743-A1F9-BAF6B05740D8}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Настройки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CategsList!$A$1:$AE$1</definedName>
     <definedName name="_ЧасовВМесяце">Настройки!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>CategID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CategHourCost</t>
   </si>
@@ -54,9 +52,6 @@
     <t>Часов в месяце</t>
   </si>
   <si>
-    <t>CHCM12</t>
-  </si>
-  <si>
     <t>CmCM01</t>
   </si>
   <si>
@@ -126,7 +121,22 @@
     <t>ChCM11</t>
   </si>
   <si>
-    <t>FN4Categ</t>
+    <t>CategName</t>
+  </si>
+  <si>
+    <t>CategKey</t>
+  </si>
+  <si>
+    <t>FN4CategName</t>
+  </si>
+  <si>
+    <t>Categ_Type</t>
+  </si>
+  <si>
+    <t>ChCM12</t>
+  </si>
+  <si>
+    <t>CCYear</t>
   </si>
 </sst>
 </file>
@@ -505,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,108 +523,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A0D5BD-5241-42B5-951F-42AA69323357}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE1" xr:uid="{93A0D5BD-5241-42B5-951F-42AA69323357}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -636,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <f>ROUND(1975/12,2)</f>
